--- a/tools/summary-papers-list.xlsx
+++ b/tools/summary-papers-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="24940" windowHeight="11210"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>读论文的目的：了解相关工作进展+复现改论文的工作</t>
   </si>
   <si>
+    <t>写完论文后</t>
+  </si>
+  <si>
     <t>逻辑</t>
   </si>
   <si>
@@ -57,7 +60,58 @@
     <t>论文的前提假设是什么？是否有局限性？</t>
   </si>
   <si>
+    <t>论文准备投之前</t>
+  </si>
+  <si>
+    <t>是否需要添加算法复杂度对比</t>
+  </si>
+  <si>
     <t>有什么缺点</t>
+  </si>
+  <si>
+    <t>对比算法的说明</t>
+  </si>
+  <si>
+    <t>讨论本方法为什么比对比方法好</t>
+  </si>
+  <si>
+    <t>是否有了足够的图表分析</t>
+  </si>
+  <si>
+    <t>感觉不足以投高水平期刊</t>
+  </si>
+  <si>
+    <t>增加工作量</t>
+  </si>
+  <si>
+    <t>看最前沿的论文</t>
+  </si>
+  <si>
+    <t>理论进一步丰富</t>
+  </si>
+  <si>
+    <t>论文脉络，故事情节进一步丰富</t>
+  </si>
+  <si>
+    <t>准备做研究</t>
+  </si>
+  <si>
+    <t>研究意义好</t>
+  </si>
+  <si>
+    <t>是否打动审稿人</t>
+  </si>
+  <si>
+    <t>研究角度新</t>
+  </si>
+  <si>
+    <t>研究方法新</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>如何避免被拒稿</t>
   </si>
   <si>
     <t>论文题目</t>
@@ -196,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -231,7 +285,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,28 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -297,6 +351,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -321,6 +389,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -328,47 +404,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,31 +450,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,151 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,15 +641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,8 +662,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,19 +701,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +730,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,137 +761,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1204,90 +1261,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="21.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="21.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="6">
+        <v>1</v>
+      </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="5">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1306,38 +1440,38 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="20.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="12.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1352,100 +1486,100 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="3" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="3" width="17.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="11.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="18.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="11.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="82" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tools/summary-papers-list.xlsx
+++ b/tools/summary-papers-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="11210"/>
+    <workbookView windowWidth="24940" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>读论文的目的：了解相关工作进展+复现改论文的工作</t>
   </si>
@@ -90,6 +90,12 @@
     <t>理论进一步丰富</t>
   </si>
   <si>
+    <t>新网络结构 CVPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新的损失 ICML/ICLR </t>
+  </si>
+  <si>
     <t>论文脉络，故事情节进一步丰富</t>
   </si>
   <si>
@@ -108,10 +114,16 @@
     <t>研究方法新</t>
   </si>
   <si>
-    <t>研究</t>
+    <t>研究内容充实</t>
+  </si>
+  <si>
+    <t>精准定位+质量优先+细节把控</t>
   </si>
   <si>
     <t>如何避免被拒稿</t>
+  </si>
+  <si>
+    <t>选择合适的期刊、确保论文质量（创新性、结构、语言）、遵循投稿指南、撰写有效的投稿信、处理审稿意见、注意数据和研究方法</t>
   </si>
   <si>
     <t>论文题目</t>
@@ -250,8 +262,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -284,6 +296,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -291,23 +304,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +328,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -335,9 +403,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,77 +427,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,25 +462,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,157 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +653,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,25 +706,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -715,32 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1348,6 +1360,9 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1356,16 +1371,25 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
+    <row r="10" spans="9:10">
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="10:10">
+    <row r="11" spans="9:10">
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1374,54 +1398,90 @@
       <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="8:10">
+    <row r="14" spans="8:14">
       <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="10:10">
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10">
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
       <c r="J15" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="8:10">
       <c r="H18" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
       <c r="J19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
       <c r="J20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="6">
+        <v>4</v>
+      </c>
       <c r="J21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
       <c r="J22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1450,28 +1510,28 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1501,85 +1561,85 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="82" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
